--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 July.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 July.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. Operational\3c. TTO Statistics\TTO TAT DATA\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733570BD-D611-E94B-AE2F-9BE428306BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9380"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$390</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="391">
   <si>
     <t>No</t>
   </si>
@@ -587,9 +598,6 @@
     <t>01:21</t>
   </si>
   <si>
-    <t>406</t>
-  </si>
-  <si>
     <t>09:10</t>
   </si>
   <si>
@@ -980,9 +988,6 @@
     <t>01:04</t>
   </si>
   <si>
-    <t>119P</t>
-  </si>
-  <si>
     <t>03:24</t>
   </si>
   <si>
@@ -1049,9 +1054,6 @@
     <t>Yi zhen</t>
   </si>
   <si>
-    <t>ICU 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poh ai ling Stephanie </t>
   </si>
   <si>
@@ -1178,9 +1180,6 @@
     <t>Soo Teng</t>
   </si>
   <si>
-    <t>icu6</t>
-  </si>
-  <si>
     <t>09:12</t>
   </si>
   <si>
@@ -1206,12 +1205,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1583,26 +1588,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" style="15"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1679,10 +1684,10 @@
         <v>26</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44378</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>493.88888888888891</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>44378</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44378</v>
       </c>
@@ -1887,7 +1892,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>44378</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44378</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>44378</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>567.77777777777771</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44378</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>44378</v>
       </c>
@@ -2232,7 +2237,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44378</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>621.25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>44378</v>
       </c>
@@ -2364,7 +2369,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44378</v>
       </c>
@@ -2431,7 +2436,7 @@
         <v>702.91666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44378</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44378</v>
       </c>
@@ -2563,7 +2568,7 @@
         <v>885.69444444444446</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>44379</v>
       </c>
@@ -2636,7 +2641,7 @@
         <v>107.91666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44379</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>44379</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44379</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>44379</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>88.472222222222214</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44379</v>
       </c>
@@ -2983,7 +2988,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>44379</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44379</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>44379</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44379</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>44379</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>50.555555555555557</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44379</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>44379</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>66.111111111111114</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44379</v>
       </c>
@@ -3551,7 +3556,7 @@
         <v>68.055555555555557</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>44379</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44379</v>
       </c>
@@ -3693,7 +3698,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>44379</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44379</v>
       </c>
@@ -3835,7 +3840,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>44379</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>729.16666666666674</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44380</v>
       </c>
@@ -3961,7 +3966,7 @@
         <v>474.4444444444444</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>44380</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>498.75</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44380</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>515.27777777777783</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>44380</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>547.36111111111109</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44381</v>
       </c>
@@ -4215,7 +4220,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>44381</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44381</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>44381</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44381</v>
       </c>
@@ -4503,7 +4508,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>44381</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44382</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>469.58333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>44382</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44382</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>44382</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44382</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>44382</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44382</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>44382</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44383</v>
       </c>
@@ -5219,7 +5224,7 @@
         <v>59.30555555555555</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>44383</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44383</v>
       </c>
@@ -5357,7 +5362,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>44383</v>
       </c>
@@ -5424,7 +5429,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44383</v>
       </c>
@@ -5495,7 +5500,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>44383</v>
       </c>
@@ -5568,7 +5573,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44383</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>44383</v>
       </c>
@@ -5708,7 +5713,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44383</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>44383</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44383</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>44383</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44383</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>44383</v>
       </c>
@@ -6120,7 +6125,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44384</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>44384</v>
       </c>
@@ -6260,7 +6265,7 @@
         <v>128.33333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44384</v>
       </c>
@@ -6325,7 +6330,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>44384</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>104.02777777777777</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44384</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>44384</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>583.33333333333337</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44384</v>
       </c>
@@ -6607,7 +6612,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>44384</v>
       </c>
@@ -6676,7 +6681,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44384</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>44384</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44384</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>44384</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44384</v>
       </c>
@@ -7025,7 +7030,7 @@
         <v>696.11111111111109</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>44384</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>154.58333333333331</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44385</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>44385</v>
       </c>
@@ -7240,7 +7245,7 @@
         <v>175.97222222222223</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44385</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>44385</v>
       </c>
@@ -7372,7 +7377,7 @@
         <v>519.16666666666674</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44385</v>
       </c>
@@ -7441,7 +7446,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>44385</v>
       </c>
@@ -7512,7 +7517,7 @@
         <v>63.194444444444443</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44385</v>
       </c>
@@ -7583,7 +7588,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>44385</v>
       </c>
@@ -7648,7 +7653,7 @@
         <v>594.02777777777771</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44385</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>44385</v>
       </c>
@@ -7790,7 +7795,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44385</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>4.8611111111111107</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>44385</v>
       </c>
@@ -7932,7 +7937,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44385</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>44385</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44385</v>
       </c>
@@ -8145,7 +8150,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>44386</v>
       </c>
@@ -8216,7 +8221,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44386</v>
       </c>
@@ -8224,7 +8229,7 @@
         <v>1021047724</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>28</v>
@@ -8243,7 +8248,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="3" t="s">
@@ -8277,7 +8282,7 @@
         <v>534.72222222222217</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>44386</v>
       </c>
@@ -8285,7 +8290,7 @@
         <v>1021048341</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>28</v>
@@ -8346,7 +8351,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44386</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>1021046142</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>28</v>
@@ -8383,7 +8388,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="3" t="s">
@@ -8417,7 +8422,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>44386</v>
       </c>
@@ -8488,7 +8493,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44386</v>
       </c>
@@ -8496,7 +8501,7 @@
         <v>1021049373</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>28</v>
@@ -8557,7 +8562,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>44386</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>1021049555</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>28</v>
@@ -8596,7 +8601,7 @@
       </c>
       <c r="M101" s="11"/>
       <c r="N101" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O101" s="9"/>
       <c r="P101" s="10" t="s">
@@ -8630,7 +8635,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44386</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>44386</v>
       </c>
@@ -8711,7 +8716,7 @@
         <v>1021049419</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>28</v>
@@ -8740,7 +8745,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O103" s="9"/>
       <c r="P103" s="10" t="s">
@@ -8774,7 +8779,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44386</v>
       </c>
@@ -8782,7 +8787,7 @@
         <v>1021047724</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>28</v>
@@ -8807,10 +8812,10 @@
         <v>33</v>
       </c>
       <c r="L104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M104" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="N104" s="17" t="s">
         <v>138</v>
@@ -8847,7 +8852,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>44386</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44386</v>
       </c>
@@ -8941,7 +8946,7 @@
         <v>44386.484722222223</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I106" s="5">
         <v>44386.493750000001</v>
@@ -8989,7 +8994,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>44386</v>
       </c>
@@ -9024,7 +9029,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O107" s="9"/>
       <c r="P107" s="10" t="s">
@@ -9058,7 +9063,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44386</v>
       </c>
@@ -9129,7 +9134,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>44386</v>
       </c>
@@ -9164,11 +9169,11 @@
         <v>33</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M109" s="11"/>
       <c r="N109" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O109" s="9"/>
       <c r="P109" s="10" t="s">
@@ -9202,7 +9207,7 @@
         <v>758.33333333333326</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44386</v>
       </c>
@@ -9210,7 +9215,7 @@
         <v>1021047408</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>28</v>
@@ -9273,7 +9278,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>44386</v>
       </c>
@@ -9281,7 +9286,7 @@
         <v>1021047408</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>28</v>
@@ -9308,7 +9313,7 @@
         <v>39</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M111" s="11"/>
       <c r="N111" s="18" t="s">
@@ -9346,7 +9351,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44386</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>44386.744444444441</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -9377,7 +9382,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="3" t="s">
@@ -9411,7 +9416,7 @@
         <v>1036.3888888888887</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>44387</v>
       </c>
@@ -9482,7 +9487,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44387</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>44387</v>
       </c>
@@ -9578,7 +9583,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O115" s="9"/>
       <c r="P115" s="10" t="s">
@@ -9612,7 +9617,7 @@
         <v>534.72222222222217</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44387</v>
       </c>
@@ -9620,7 +9625,7 @@
         <v>1021047600</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>28</v>
@@ -9683,7 +9688,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>44387</v>
       </c>
@@ -9691,7 +9696,7 @@
         <v>1021047996</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>28</v>
@@ -9754,7 +9759,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44387</v>
       </c>
@@ -9791,7 +9796,7 @@
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="3" t="s">
@@ -9825,7 +9830,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>44387</v>
       </c>
@@ -9833,7 +9838,7 @@
         <v>1021049573</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>58</v>
@@ -9894,7 +9899,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44387</v>
       </c>
@@ -9925,7 +9930,7 @@
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="3" t="s">
@@ -9959,7 +9964,7 @@
         <v>719.44444444444457</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>44388</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>44388.395833333336</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I121" s="12">
         <v>44388.409722222219</v>
@@ -9991,7 +9996,7 @@
         <v>44388.413194444445</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
@@ -10030,7 +10035,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44388</v>
       </c>
@@ -10053,7 +10058,7 @@
         <v>44388.399305555555</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I122" s="5">
         <v>44388.40625</v>
@@ -10062,7 +10067,7 @@
         <v>44388.409722222219</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -10101,7 +10106,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>44388</v>
       </c>
@@ -10109,7 +10114,7 @@
         <v>1021048381</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>28</v>
@@ -10133,7 +10138,7 @@
         <v>44388.424305555556</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
@@ -10172,7 +10177,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44388</v>
       </c>
@@ -10180,7 +10185,7 @@
         <v>1021049159</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>28</v>
@@ -10202,14 +10207,14 @@
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>41</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="3" t="s">
@@ -10243,7 +10248,7 @@
         <v>103.05555555555556</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>44388</v>
       </c>
@@ -10266,7 +10271,7 @@
         <v>44388.402777777781</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I125" s="12">
         <v>44388.413194444445</v>
@@ -10275,7 +10280,7 @@
         <v>44388.415277777778</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
@@ -10314,7 +10319,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44388</v>
       </c>
@@ -10322,7 +10327,7 @@
         <v>1021049321</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>28</v>
@@ -10344,7 +10349,7 @@
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -10383,7 +10388,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>44388</v>
       </c>
@@ -10391,7 +10396,7 @@
         <v>1021049864</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>28</v>
@@ -10415,12 +10420,12 @@
         <v>44388.464583333334</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O127" s="9"/>
       <c r="P127" s="10" t="s">
@@ -10454,7 +10459,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44388</v>
       </c>
@@ -10462,7 +10467,7 @@
         <v>1021050171</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>28</v>
@@ -10486,7 +10491,7 @@
         <v>44388.472222222219</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -10525,7 +10530,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>44388</v>
       </c>
@@ -10548,7 +10553,7 @@
         <v>44388.45416666667</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I129" s="12">
         <v>44388.465277777781</v>
@@ -10557,7 +10562,7 @@
         <v>44388.468055555553</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L129" s="11"/>
       <c r="M129" s="11"/>
@@ -10596,7 +10601,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44388</v>
       </c>
@@ -10604,7 +10609,7 @@
         <v>1021046456</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>58</v>
@@ -10655,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>44388</v>
       </c>
@@ -10663,7 +10668,7 @@
         <v>1021047937</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>28</v>
@@ -10682,7 +10687,7 @@
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
       <c r="N131" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O131" s="9"/>
       <c r="P131" s="10" t="s">
@@ -10716,7 +10721,7 @@
         <v>680.55555555555554</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44388</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>44388.461805555555</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I132" s="5">
         <v>44388.493055555555</v>
@@ -10748,14 +10753,14 @@
         <v>44388.49722222222</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>66</v>
       </c>
       <c r="M132" s="4"/>
       <c r="N132" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="3" t="s">
@@ -10789,7 +10794,7 @@
         <v>145.83333333333334</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>44389</v>
       </c>
@@ -10812,7 +10817,7 @@
         <v>44389.402777777781</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I133" s="12">
         <v>44389.378472222219</v>
@@ -10826,7 +10831,7 @@
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
       <c r="N133" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O133" s="9"/>
       <c r="P133" s="10" t="s">
@@ -10860,7 +10865,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44389</v>
       </c>
@@ -10868,7 +10873,7 @@
         <v>1021050217</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>28</v>
@@ -10892,14 +10897,14 @@
         <v>44389.672511574077</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>66</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="3" t="s">
@@ -10933,7 +10938,7 @@
         <v>408.33333333333337</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>44389</v>
       </c>
@@ -11004,7 +11009,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44389</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>44389</v>
       </c>
@@ -11106,7 +11111,7 @@
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
       <c r="N137" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O137" s="9"/>
       <c r="P137" s="10" t="s">
@@ -11140,7 +11145,7 @@
         <v>125.41666666666667</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44389</v>
       </c>
@@ -11173,7 +11178,7 @@
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="3" t="s">
@@ -11207,7 +11212,7 @@
         <v>95.277777777777771</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>44389</v>
       </c>
@@ -11230,7 +11235,7 @@
         <v>44389.565972222219</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I139" s="12">
         <v>44389.567361111112</v>
@@ -11242,7 +11247,7 @@
       <c r="L139" s="11"/>
       <c r="M139" s="11"/>
       <c r="N139" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O139" s="9"/>
       <c r="P139" s="10" t="s">
@@ -11276,7 +11281,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44389</v>
       </c>
@@ -11284,7 +11289,7 @@
         <v>1021049890</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>28</v>
@@ -11313,7 +11318,7 @@
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="3" t="s">
@@ -11347,7 +11352,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>44389</v>
       </c>
@@ -11379,14 +11384,14 @@
         <v>44389.538194444445</v>
       </c>
       <c r="K141" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L141" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M141" s="11"/>
       <c r="N141" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O141" s="9"/>
       <c r="P141" s="10" t="s">
@@ -11420,7 +11425,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44389</v>
       </c>
@@ -11452,12 +11457,12 @@
         <v>44389.546527777777</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="3" t="s">
@@ -11491,7 +11496,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>44389</v>
       </c>
@@ -11514,7 +11519,7 @@
         <v>44389.641759259262</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I143" s="12">
         <v>44389.641712962963</v>
@@ -11523,12 +11528,12 @@
         <v>44389.641817129632</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L143" s="11"/>
       <c r="M143" s="11"/>
       <c r="N143" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O143" s="9"/>
       <c r="P143" s="10" t="s">
@@ -11562,7 +11567,7 @@
         <v>153.61111111111111</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44389</v>
       </c>
@@ -11599,7 +11604,7 @@
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="3" t="s">
@@ -11633,7 +11638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>44389</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>1021050007</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>28</v>
@@ -11668,7 +11673,7 @@
       <c r="L145" s="11"/>
       <c r="M145" s="11"/>
       <c r="N145" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O145" s="9"/>
       <c r="P145" s="10" t="s">
@@ -11702,7 +11707,7 @@
         <v>816.66666666666674</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44389</v>
       </c>
@@ -11773,7 +11778,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>44389</v>
       </c>
@@ -11844,7 +11849,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44390</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>1021050540</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>28</v>
@@ -11867,7 +11872,7 @@
         <v>44390.383333333331</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I148" s="5">
         <v>44390.428472222222</v>
@@ -11915,7 +11920,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>44390</v>
       </c>
@@ -11938,7 +11943,7 @@
         <v>44390.395833333336</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I149" s="12">
         <v>44390.408333333333</v>
@@ -11952,7 +11957,7 @@
       <c r="L149" s="11"/>
       <c r="M149" s="11"/>
       <c r="N149" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O149" s="9"/>
       <c r="P149" s="10" t="s">
@@ -11986,7 +11991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44390</v>
       </c>
@@ -11994,7 +11999,7 @@
         <v>1021049914</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>28</v>
@@ -12009,7 +12014,7 @@
         <v>44390.432638888888</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I150" s="5">
         <v>44390.432638888888</v>
@@ -12025,7 +12030,7 @@
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="3" t="s">
@@ -12059,7 +12064,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>44390</v>
       </c>
@@ -12067,7 +12072,7 @@
         <v>1021045435</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>28</v>
@@ -12082,7 +12087,7 @@
         <v>44390.435416666667</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I151" s="12">
         <v>44390.435416666667</v>
@@ -12130,7 +12135,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44390</v>
       </c>
@@ -12138,7 +12143,7 @@
         <v>1021031183</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>28</v>
@@ -12153,7 +12158,7 @@
         <v>44390.45</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I152" s="5">
         <v>44390.45</v>
@@ -12167,7 +12172,7 @@
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="3" t="s">
@@ -12201,7 +12206,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>44390</v>
       </c>
@@ -12224,7 +12229,7 @@
         <v>44390.470138888886</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I153" s="12">
         <v>44390.470138888886</v>
@@ -12238,7 +12243,7 @@
       <c r="L153" s="11"/>
       <c r="M153" s="11"/>
       <c r="N153" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O153" s="9"/>
       <c r="P153" s="10" t="s">
@@ -12272,7 +12277,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44390</v>
       </c>
@@ -12280,7 +12285,7 @@
         <v>1021045435</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>28</v>
@@ -12307,7 +12312,7 @@
       </c>
       <c r="M154" s="4"/>
       <c r="N154" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="3" t="s">
@@ -12341,7 +12346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>44390</v>
       </c>
@@ -12349,7 +12354,7 @@
         <v>1021031183</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D155" s="11" t="s">
         <v>58</v>
@@ -12364,7 +12369,7 @@
         <v>44390.49119212963</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I155" s="12">
         <v>44390.495335648149</v>
@@ -12373,7 +12378,7 @@
         <v>44390.501215277778</v>
       </c>
       <c r="K155" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
@@ -12412,7 +12417,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44390</v>
       </c>
@@ -12420,7 +12425,7 @@
         <v>1021050613</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>28</v>
@@ -12445,7 +12450,7 @@
       </c>
       <c r="M156" s="4"/>
       <c r="N156" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="3" t="s">
@@ -12479,7 +12484,7 @@
         <v>678.61111111111109</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>44390</v>
       </c>
@@ -12487,7 +12492,7 @@
         <v>1021050518</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>28</v>
@@ -12502,7 +12507,7 @@
         <v>44390.5471875</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I157" s="12">
         <v>44390.547349537039</v>
@@ -12511,12 +12516,12 @@
         <v>44390.560150462959</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L157" s="11"/>
       <c r="M157" s="11"/>
       <c r="N157" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="10" t="s">
@@ -12550,7 +12555,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44390</v>
       </c>
@@ -12573,7 +12578,7 @@
         <v>44390.59878472222</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I158" s="5">
         <v>44390.618645833332</v>
@@ -12582,12 +12587,12 @@
         <v>44390.618703703702</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="3" t="s">
@@ -12621,7 +12626,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>44390</v>
       </c>
@@ -12629,7 +12634,7 @@
         <v>1021031183</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>28</v>
@@ -12644,7 +12649,7 @@
         <v>44390.597916666666</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I159" s="12">
         <v>44390.598703703705</v>
@@ -12653,12 +12658,12 @@
         <v>44390.598923611113</v>
       </c>
       <c r="K159" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L159" s="11"/>
       <c r="M159" s="11"/>
       <c r="N159" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O159" s="9"/>
       <c r="P159" s="10" t="s">
@@ -12692,7 +12697,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44390</v>
       </c>
@@ -12729,7 +12734,7 @@
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="3" t="s">
@@ -12763,7 +12768,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>44390</v>
       </c>
@@ -12771,7 +12776,7 @@
         <v>1021049995</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>58</v>
@@ -12800,7 +12805,7 @@
       <c r="L161" s="11"/>
       <c r="M161" s="11"/>
       <c r="N161" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O161" s="9"/>
       <c r="P161" s="10" t="s">
@@ -12834,7 +12839,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44391</v>
       </c>
@@ -12905,7 +12910,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>44391</v>
       </c>
@@ -12976,7 +12981,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44391</v>
       </c>
@@ -12984,7 +12989,7 @@
         <v>1021050715</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>28</v>
@@ -13013,7 +13018,7 @@
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="3" t="s">
@@ -13047,7 +13052,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>44391</v>
       </c>
@@ -13055,7 +13060,7 @@
         <v>1021048767</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>28</v>
@@ -13082,7 +13087,7 @@
       </c>
       <c r="M165" s="11"/>
       <c r="N165" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="10" t="s">
@@ -13116,7 +13121,7 @@
         <v>69.027777777777771</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44391</v>
       </c>
@@ -13143,7 +13148,7 @@
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="3" t="s">
@@ -13177,7 +13182,7 @@
         <v>566.80555555555554</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>44391</v>
       </c>
@@ -13185,7 +13190,7 @@
         <v>1021049629</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>58</v>
@@ -13212,7 +13217,7 @@
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O167" s="9"/>
       <c r="P167" s="10" t="s">
@@ -13246,7 +13251,7 @@
         <v>195.41666666666669</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44391</v>
       </c>
@@ -13273,7 +13278,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="3" t="s">
@@ -13307,7 +13312,7 @@
         <v>599.86111111111109</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>44391</v>
       </c>
@@ -13330,7 +13335,7 @@
         <v>44391.402083333334</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I169" s="12">
         <v>44391.447222222225</v>
@@ -13344,7 +13349,7 @@
       <c r="L169" s="11"/>
       <c r="M169" s="11"/>
       <c r="N169" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O169" s="9"/>
       <c r="P169" s="10" t="s">
@@ -13378,7 +13383,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44391</v>
       </c>
@@ -13386,7 +13391,7 @@
         <v>1021050933</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>28</v>
@@ -13413,7 +13418,7 @@
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="3" t="s">
@@ -13447,7 +13452,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>44391</v>
       </c>
@@ -13518,7 +13523,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44391</v>
       </c>
@@ -13549,7 +13554,7 @@
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="3" t="s">
@@ -13583,7 +13588,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>44391</v>
       </c>
@@ -13652,7 +13657,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44391</v>
       </c>
@@ -13675,7 +13680,7 @@
         <v>44391.511805555558</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I174" s="5">
         <v>44391.538888888892</v>
@@ -13723,7 +13728,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>44391</v>
       </c>
@@ -13746,7 +13751,7 @@
         <v>44391.522916666669</v>
       </c>
       <c r="H175" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I175" s="12">
         <v>44391.540972222225</v>
@@ -13794,7 +13799,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44391</v>
       </c>
@@ -13817,7 +13822,7 @@
         <v>44391.53402777778</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I176" s="5">
         <v>44391.548611111109</v>
@@ -13831,7 +13836,7 @@
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="3" t="s">
@@ -13865,7 +13870,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>44391</v>
       </c>
@@ -13873,7 +13878,7 @@
         <v>1021050760</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>28</v>
@@ -13888,7 +13893,7 @@
         <v>44391.577777777777</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I177" s="12">
         <v>44391.595138888886</v>
@@ -13902,7 +13907,7 @@
       <c r="L177" s="11"/>
       <c r="M177" s="11"/>
       <c r="N177" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="10" t="s">
@@ -13936,7 +13941,7 @@
         <v>727.22222222222229</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44391</v>
       </c>
@@ -13944,7 +13949,7 @@
         <v>1021050245</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>58</v>
@@ -13959,7 +13964,7 @@
         <v>44391.65347222222</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I178" s="5">
         <v>44391.65625</v>
@@ -13968,12 +13973,12 @@
         <v>44391.661805555559</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="3" t="s">
@@ -14007,7 +14012,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>44391</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>44391.711111111108</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I179" s="12">
         <v>44391.743055555555</v>
@@ -14039,14 +14044,14 @@
         <v>44391.753472222219</v>
       </c>
       <c r="K179" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L179" s="11" t="s">
         <v>66</v>
       </c>
       <c r="M179" s="11"/>
       <c r="N179" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O179" s="9"/>
       <c r="P179" s="10" t="s">
@@ -14080,7 +14085,7 @@
         <v>97.2222222222222</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44391</v>
       </c>
@@ -14103,7 +14108,7 @@
         <v>44391.712500000001</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I180" s="5">
         <v>44391.725694444445</v>
@@ -14112,14 +14117,14 @@
         <v>44391.736805555556</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M180" s="4"/>
       <c r="N180" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="3" t="s">
@@ -14153,7 +14158,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>44392</v>
       </c>
@@ -14176,7 +14181,7 @@
         <v>44392.379861111112</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I181" s="12">
         <v>44392.384722222225</v>
@@ -14190,7 +14195,7 @@
       <c r="L181" s="11"/>
       <c r="M181" s="11"/>
       <c r="N181" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O181" s="9"/>
       <c r="P181" s="10" t="s">
@@ -14224,7 +14229,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44392</v>
       </c>
@@ -14232,7 +14237,7 @@
         <v>1021051009</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>58</v>
@@ -14247,7 +14252,7 @@
         <v>44392.385416666664</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I182" s="5">
         <v>44392.404166666667</v>
@@ -14295,7 +14300,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>44392</v>
       </c>
@@ -14318,7 +14323,7 @@
         <v>44392.396527777775</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I183" s="12">
         <v>44392.409722222219</v>
@@ -14366,7 +14371,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44392</v>
       </c>
@@ -14397,7 +14402,7 @@
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="3" t="s">
@@ -14431,7 +14436,7 @@
         <v>548.33333333333337</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>44392</v>
       </c>
@@ -14439,7 +14444,7 @@
         <v>1021049671</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>28</v>
@@ -14454,7 +14459,7 @@
         <v>44392.43476851852</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I185" s="12">
         <v>44392.434791666667</v>
@@ -14463,7 +14468,7 @@
         <v>44392.439722222225</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
@@ -14502,7 +14507,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44392</v>
       </c>
@@ -14573,7 +14578,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>44392</v>
       </c>
@@ -14596,7 +14601,7 @@
         <v>44392.47152777778</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I187" s="12">
         <v>44392.496527777781</v>
@@ -14605,12 +14610,12 @@
         <v>44392.499305555553</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
       <c r="N187" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O187" s="9"/>
       <c r="P187" s="10" t="s">
@@ -14644,7 +14649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44392</v>
       </c>
@@ -14681,7 +14686,7 @@
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="3" t="s">
@@ -14715,7 +14720,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>44393</v>
       </c>
@@ -14786,7 +14791,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44393</v>
       </c>
@@ -14857,7 +14862,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>44393</v>
       </c>
@@ -14928,7 +14933,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44393</v>
       </c>
@@ -14936,7 +14941,7 @@
         <v>1021051164</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>28</v>
@@ -14951,7 +14956,7 @@
         <v>44393.394444444442</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I192" s="5">
         <v>44393.411805555559</v>
@@ -14960,7 +14965,7 @@
         <v>44393.415277777778</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
@@ -14999,7 +15004,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>44393</v>
       </c>
@@ -15022,7 +15027,7 @@
         <v>44393.452777777777</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I193" s="12">
         <v>44393.458333333336</v>
@@ -15036,7 +15041,7 @@
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
       <c r="N193" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O193" s="9"/>
       <c r="P193" s="10" t="s">
@@ -15070,7 +15075,7 @@
         <v>106.94444444444446</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44393</v>
       </c>
@@ -15078,7 +15083,7 @@
         <v>1021051516</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>28</v>
@@ -15093,7 +15098,7 @@
         <v>44393.459722222222</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I194" s="5">
         <v>44393.465277777781</v>
@@ -15102,14 +15107,14 @@
         <v>44393.470833333333</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>66</v>
       </c>
       <c r="M194" s="4"/>
       <c r="N194" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="3" t="s">
@@ -15143,7 +15148,7 @@
         <v>112.77777777777779</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>44393</v>
       </c>
@@ -15180,7 +15185,7 @@
       <c r="L195" s="11"/>
       <c r="M195" s="11"/>
       <c r="N195" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O195" s="9"/>
       <c r="P195" s="10" t="s">
@@ -15214,7 +15219,7 @@
         <v>100.1388888888889</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44393</v>
       </c>
@@ -15237,7 +15242,7 @@
         <v>44393.395833333336</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I196" s="5">
         <v>44393.418749999997</v>
@@ -15245,11 +15250,11 @@
       <c r="J196" s="5"/>
       <c r="K196" s="3"/>
       <c r="L196" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M196" s="4"/>
       <c r="N196" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="3" t="s">
@@ -15283,7 +15288,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>44393</v>
       </c>
@@ -15291,7 +15296,7 @@
         <v>1021051426</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>28</v>
@@ -15306,7 +15311,7 @@
         <v>44393.590277777781</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I197" s="12">
         <v>44393.638888888891</v>
@@ -15315,12 +15320,12 @@
         <v>44393.645833333336</v>
       </c>
       <c r="K197" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L197" s="11"/>
       <c r="M197" s="11"/>
       <c r="N197" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O197" s="9"/>
       <c r="P197" s="10" t="s">
@@ -15354,7 +15359,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44393</v>
       </c>
@@ -15386,7 +15391,7 @@
         <v>44393.615497685183</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
@@ -15425,7 +15430,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>44393</v>
       </c>
@@ -15457,7 +15462,7 @@
         <v>44393.729490740741</v>
       </c>
       <c r="K199" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
@@ -15496,7 +15501,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44394</v>
       </c>
@@ -15569,7 +15574,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>44394</v>
       </c>
@@ -15592,7 +15597,7 @@
         <v>44394.373611111114</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I201" s="12">
         <v>44394.39166666667</v>
@@ -15606,7 +15611,7 @@
       <c r="L201" s="11"/>
       <c r="M201" s="11"/>
       <c r="N201" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O201" s="9"/>
       <c r="P201" s="10" t="s">
@@ -15640,7 +15645,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44394</v>
       </c>
@@ -15677,7 +15682,7 @@
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="3" t="s">
@@ -15711,7 +15716,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>44394</v>
       </c>
@@ -15734,7 +15739,7 @@
         <v>44394.397916666669</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I203" s="12">
         <v>44394.42291666667</v>
@@ -15743,12 +15748,12 @@
         <v>44394.426388888889</v>
       </c>
       <c r="K203" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
       <c r="N203" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O203" s="9"/>
       <c r="P203" s="10" t="s">
@@ -15782,7 +15787,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44394</v>
       </c>
@@ -15805,7 +15810,7 @@
         <v>44394.384722222225</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I204" s="5">
         <v>44394.399305555555</v>
@@ -15853,7 +15858,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>44394</v>
       </c>
@@ -15876,7 +15881,7 @@
         <v>44394.390277777777</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I205" s="12">
         <v>44394.413194444445</v>
@@ -15885,12 +15890,12 @@
         <v>44394.417361111111</v>
       </c>
       <c r="K205" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
       <c r="N205" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O205" s="9"/>
       <c r="P205" s="10" t="s">
@@ -15924,7 +15929,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44394</v>
       </c>
@@ -15932,7 +15937,7 @@
         <v>1021051823</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>28</v>
@@ -15947,7 +15952,7 @@
         <v>44394.396527777775</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I206" s="5">
         <v>44394.417361111111</v>
@@ -15956,7 +15961,7 @@
         <v>44394.421527777777</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
@@ -15995,7 +16000,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>44394</v>
       </c>
@@ -16018,7 +16023,7 @@
         <v>44394.397222222222</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I207" s="12">
         <v>44394.422222222223</v>
@@ -16032,7 +16037,7 @@
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
       <c r="N207" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O207" s="9"/>
       <c r="P207" s="10" t="s">
@@ -16066,7 +16071,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44394</v>
       </c>
@@ -16139,7 +16144,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>44394</v>
       </c>
@@ -16162,7 +16167,7 @@
         <v>44394.425000000003</v>
       </c>
       <c r="H209" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I209" s="12">
         <v>44394.46875</v>
@@ -16208,7 +16213,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44394</v>
       </c>
@@ -16231,7 +16236,7 @@
         <v>44394.431944444441</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I210" s="5">
         <v>44394.463194444441</v>
@@ -16245,7 +16250,7 @@
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="3" t="s">
@@ -16279,7 +16284,7 @@
         <v>69.027777777777771</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>44394</v>
       </c>
@@ -16287,7 +16292,7 @@
         <v>1021050252</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D211" s="11"/>
       <c r="E211" s="9">
@@ -16300,7 +16305,7 @@
         <v>44394.42083333333</v>
       </c>
       <c r="H211" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I211" s="12">
         <v>44394.446527777778</v>
@@ -16348,7 +16353,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44394</v>
       </c>
@@ -16371,7 +16376,7 @@
         <v>44394.463194444441</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I212" s="5">
         <v>44394.460416666669</v>
@@ -16419,7 +16424,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>44394</v>
       </c>
@@ -16442,7 +16447,7 @@
         <v>44394.463194444441</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I213" s="12">
         <v>44394.474305555559</v>
@@ -16488,7 +16493,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44394</v>
       </c>
@@ -16511,7 +16516,7 @@
         <v>44394.408333333333</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I214" s="5">
         <v>44394.426388888889</v>
@@ -16520,7 +16525,7 @@
         <v>44394.436111111114</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
@@ -16559,7 +16564,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>44394</v>
       </c>
@@ -16582,7 +16587,7 @@
         <v>44394.394444444442</v>
       </c>
       <c r="H215" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I215" s="12">
         <v>44394.404861111114</v>
@@ -16630,7 +16635,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44394</v>
       </c>
@@ -16665,7 +16670,7 @@
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="3" t="s">
@@ -16699,7 +16704,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>44395</v>
       </c>
@@ -16730,7 +16735,7 @@
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
       <c r="N217" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O217" s="9"/>
       <c r="P217" s="10" t="s">
@@ -16764,7 +16769,7 @@
         <v>520.1388888888888</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44395</v>
       </c>
@@ -16791,7 +16796,7 @@
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="3" t="s">
@@ -16825,7 +16830,7 @@
         <v>585.27777777777783</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>44395</v>
       </c>
@@ -16890,7 +16895,7 @@
         <v>621.25</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44395</v>
       </c>
@@ -16898,7 +16903,7 @@
         <v>1021051068</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>28</v>
@@ -16961,7 +16966,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>44395</v>
       </c>
@@ -16969,7 +16974,7 @@
         <v>1021050222</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>28</v>
@@ -16988,7 +16993,7 @@
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
       <c r="N221" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O221" s="9"/>
       <c r="P221" s="10" t="s">
@@ -17022,7 +17027,7 @@
         <v>633.88888888888891</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44395</v>
       </c>
@@ -17030,7 +17035,7 @@
         <v>1021052086</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>28</v>
@@ -17059,7 +17064,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="3" t="s">
@@ -17093,7 +17098,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>44395</v>
       </c>
@@ -17101,7 +17106,7 @@
         <v>1021052070</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>28</v>
@@ -17124,7 +17129,7 @@
       <c r="L223" s="11"/>
       <c r="M223" s="11"/>
       <c r="N223" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O223" s="9"/>
       <c r="P223" s="10" t="s">
@@ -17158,7 +17163,7 @@
         <v>642.63888888888891</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44395</v>
       </c>
@@ -17166,7 +17171,7 @@
         <v>1021051141</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>58</v>
@@ -17185,7 +17190,7 @@
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="3" t="s">
@@ -17219,7 +17224,7 @@
         <v>648.47222222222229</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>44395</v>
       </c>
@@ -17227,7 +17232,7 @@
         <v>1021051790</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>28</v>
@@ -17246,7 +17251,7 @@
       <c r="L225" s="11"/>
       <c r="M225" s="11"/>
       <c r="N225" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O225" s="9"/>
       <c r="P225" s="10" t="s">
@@ -17280,7 +17285,7 @@
         <v>660.13888888888891</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44395</v>
       </c>
@@ -17307,7 +17312,7 @@
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
       <c r="N226" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="3" t="s">
@@ -17341,7 +17346,7 @@
         <v>672.77777777777783</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>44396</v>
       </c>
@@ -17371,7 +17376,7 @@
       </c>
       <c r="J227" s="12"/>
       <c r="K227" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
@@ -17410,7 +17415,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44396</v>
       </c>
@@ -17418,7 +17423,7 @@
         <v>1021051686</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>28</v>
@@ -17433,7 +17438,7 @@
         <v>44396.396527777775</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I228" s="5">
         <v>44396.419444444444</v>
@@ -17442,7 +17447,7 @@
         <v>44396.42083333333</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
@@ -17481,7 +17486,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>44396</v>
       </c>
@@ -17489,7 +17494,7 @@
         <v>1021050281</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>28</v>
@@ -17504,14 +17509,14 @@
         <v>44396.411111111112</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I229" s="12">
         <v>44396.427083333336</v>
       </c>
       <c r="J229" s="12"/>
       <c r="K229" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L229" s="11" t="s">
         <v>125</v>
@@ -17552,7 +17557,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44396</v>
       </c>
@@ -17560,7 +17565,7 @@
         <v>1021050281</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>28</v>
@@ -17575,19 +17580,19 @@
         <v>44396.411111111112</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I230" s="5">
         <v>44396.427083333336</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="3" t="s">
@@ -17621,7 +17626,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>44396</v>
       </c>
@@ -17644,21 +17649,21 @@
         <v>44396.426388888889</v>
       </c>
       <c r="H231" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I231" s="12">
         <v>44396.454861111109</v>
       </c>
       <c r="J231" s="12"/>
       <c r="K231" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L231" s="11" t="s">
         <v>125</v>
       </c>
       <c r="M231" s="11"/>
       <c r="N231" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O231" s="9"/>
       <c r="P231" s="10" t="s">
@@ -17692,7 +17697,7 @@
         <v>65.138888888888886</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44396</v>
       </c>
@@ -17715,7 +17720,7 @@
         <v>44396.423611111109</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I232" s="5">
         <v>44396.458333333336</v>
@@ -17724,12 +17729,12 @@
         <v>44396.467361111114</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
       <c r="N232" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="3" t="s">
@@ -17763,7 +17768,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>44396</v>
       </c>
@@ -17771,7 +17776,7 @@
         <v>1021052140</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>28</v>
@@ -17786,7 +17791,7 @@
         <v>44396.431250000001</v>
       </c>
       <c r="H233" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I233" s="12">
         <v>44396.440972222219</v>
@@ -17795,7 +17800,7 @@
         <v>44396.446527777778</v>
       </c>
       <c r="K233" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
@@ -17834,7 +17839,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44396</v>
       </c>
@@ -17842,7 +17847,7 @@
         <v>1021052053</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>28</v>
@@ -17857,7 +17862,7 @@
         <v>44396.429166666669</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I234" s="5">
         <v>44396.451388888891</v>
@@ -17866,7 +17871,7 @@
         <v>44396.453472222223</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
@@ -17905,7 +17910,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>44396</v>
       </c>
@@ -17913,7 +17918,7 @@
         <v>1021046135</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>28</v>
@@ -17928,7 +17933,7 @@
         <v>44396.448611111111</v>
       </c>
       <c r="H235" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I235" s="12">
         <v>44396.472222222219</v>
@@ -17936,7 +17941,7 @@
       <c r="J235" s="12"/>
       <c r="K235" s="10"/>
       <c r="L235" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M235" s="11"/>
       <c r="N235" s="18" t="s">
@@ -17974,7 +17979,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44396</v>
       </c>
@@ -17982,7 +17987,7 @@
         <v>1021052038</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>28</v>
@@ -18011,7 +18016,7 @@
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
       <c r="N236" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="3" t="s">
@@ -18045,7 +18050,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>44396</v>
       </c>
@@ -18053,7 +18058,7 @@
         <v>1021051078</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>28</v>
@@ -18118,7 +18123,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44396</v>
       </c>
@@ -18155,7 +18160,7 @@
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
       <c r="N238" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="3" t="s">
@@ -18189,7 +18194,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>44396</v>
       </c>
@@ -18260,7 +18265,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44396</v>
       </c>
@@ -18331,7 +18336,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>44396</v>
       </c>
@@ -18339,7 +18344,7 @@
         <v>1021048399</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>28</v>
@@ -18368,7 +18373,7 @@
       <c r="L241" s="11"/>
       <c r="M241" s="11"/>
       <c r="N241" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O241" s="9"/>
       <c r="P241" s="10" t="s">
@@ -18402,7 +18407,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44398</v>
       </c>
@@ -18410,7 +18415,7 @@
         <v>1021051640</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>28</v>
@@ -18430,12 +18435,12 @@
         <v>44398.467361111114</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="3" t="s">
@@ -18469,7 +18474,7 @@
         <v>132.22222222222223</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>44398</v>
       </c>
@@ -18498,7 +18503,7 @@
       <c r="L243" s="11"/>
       <c r="M243" s="11"/>
       <c r="N243" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O243" s="9"/>
       <c r="P243" s="10" t="s">
@@ -18532,7 +18537,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44398</v>
       </c>
@@ -18564,7 +18569,7 @@
         <v>44398.423611111109</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
@@ -18603,7 +18608,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>44398</v>
       </c>
@@ -18674,7 +18679,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44398</v>
       </c>
@@ -18707,7 +18712,7 @@
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
       <c r="N246" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" s="3" t="s">
@@ -18741,7 +18746,7 @@
         <v>158.47222222222223</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>44398</v>
       </c>
@@ -18773,14 +18778,14 @@
         <v>44398.548611111109</v>
       </c>
       <c r="K247" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L247" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M247" s="11"/>
       <c r="N247" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O247" s="9"/>
       <c r="P247" s="10" t="s">
@@ -18814,7 +18819,7 @@
         <v>217.77777777777777</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44398</v>
       </c>
@@ -18846,7 +18851,7 @@
         <v>44398.428472222222</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
@@ -18885,7 +18890,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>44398</v>
       </c>
@@ -18922,7 +18927,7 @@
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
       <c r="N249" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O249" s="9"/>
       <c r="P249" s="10" t="s">
@@ -18956,7 +18961,7 @@
         <v>103.05555555555556</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44398</v>
       </c>
@@ -18964,7 +18969,7 @@
         <v>1021052524</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>28</v>
@@ -18988,7 +18993,7 @@
         <v>44398.537499999999</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
@@ -19027,7 +19032,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>44398</v>
       </c>
@@ -19035,7 +19040,7 @@
         <v>1021050557</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>28</v>
@@ -19098,7 +19103,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44398</v>
       </c>
@@ -19106,7 +19111,7 @@
         <v>1021050984</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>28</v>
@@ -19125,7 +19130,7 @@
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
       <c r="N252" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" s="3" t="s">
@@ -19159,7 +19164,7 @@
         <v>704.86111111111109</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>44398</v>
       </c>
@@ -19230,7 +19235,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44399</v>
       </c>
@@ -19238,7 +19243,7 @@
         <v>1021043296</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>28</v>
@@ -19253,7 +19258,7 @@
         <v>44399.393055555556</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I254" s="5">
         <v>44399.393622685187</v>
@@ -19261,7 +19266,7 @@
       <c r="J254" s="5"/>
       <c r="K254" s="3"/>
       <c r="L254" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M254" s="4"/>
       <c r="N254" s="17" t="s">
@@ -19299,7 +19304,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>44399</v>
       </c>
@@ -19307,7 +19312,7 @@
         <v>1021052679</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>28</v>
@@ -19336,7 +19341,7 @@
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
       <c r="N255" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O255" s="9"/>
       <c r="P255" s="10" t="s">
@@ -19370,7 +19375,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44399</v>
       </c>
@@ -19378,7 +19383,7 @@
         <v>1021052100</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>28</v>
@@ -19393,7 +19398,7 @@
         <v>44399.412499999999</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I256" s="5">
         <v>44399.4375</v>
@@ -19407,7 +19412,7 @@
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" s="3" t="s">
@@ -19441,7 +19446,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>44399</v>
       </c>
@@ -19464,7 +19469,7 @@
         <v>44399.412835648145</v>
       </c>
       <c r="H257" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I257" s="12">
         <v>44399.412916666668</v>
@@ -19473,12 +19478,12 @@
         <v>44399.415810185186</v>
       </c>
       <c r="K257" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
       <c r="N257" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O257" s="9"/>
       <c r="P257" s="10" t="s">
@@ -19512,7 +19517,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44399</v>
       </c>
@@ -19520,7 +19525,7 @@
         <v>1021052681</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>58</v>
@@ -19535,7 +19540,7 @@
         <v>44399.462500000001</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I258" s="5">
         <v>44399.475694444445</v>
@@ -19549,7 +19554,7 @@
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
       <c r="N258" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="3" t="s">
@@ -19583,7 +19588,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>44399</v>
       </c>
@@ -19615,14 +19620,14 @@
         <v>44399.604814814818</v>
       </c>
       <c r="K259" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L259" s="11" t="s">
         <v>66</v>
       </c>
       <c r="M259" s="11"/>
       <c r="N259" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O259" s="9"/>
       <c r="P259" s="10" t="s">
@@ -19656,7 +19661,7 @@
         <v>198.33333333333331</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44399</v>
       </c>
@@ -19725,7 +19730,7 @@
         <v>104.02777777777777</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>44399</v>
       </c>
@@ -19757,7 +19762,7 @@
         <v>44399.604120370372</v>
       </c>
       <c r="K261" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
@@ -19796,7 +19801,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44399</v>
       </c>
@@ -19804,7 +19809,7 @@
         <v>1021052543</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>28</v>
@@ -19833,7 +19838,7 @@
       </c>
       <c r="M262" s="4"/>
       <c r="N262" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" s="3" t="s">
@@ -19867,7 +19872,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>44400</v>
       </c>
@@ -19875,7 +19880,7 @@
         <v>1021052316</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D263" s="11" t="s">
         <v>28</v>
@@ -19890,7 +19895,7 @@
         <v>44400.370138888888</v>
       </c>
       <c r="H263" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I263" s="12">
         <v>44400.40625</v>
@@ -19899,12 +19904,12 @@
         <v>44400.409722222219</v>
       </c>
       <c r="K263" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
       <c r="N263" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O263" s="9"/>
       <c r="P263" s="10" t="s">
@@ -19938,7 +19943,7 @@
         <v>65.138888888888886</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44400</v>
       </c>
@@ -19961,7 +19966,7 @@
         <v>44400.402557870373</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I264" s="5">
         <v>44400.402581018519</v>
@@ -19970,7 +19975,7 @@
         <v>44400.408460648148</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
@@ -20009,7 +20014,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>44400</v>
       </c>
@@ -20017,7 +20022,7 @@
         <v>1021053114</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D265" s="11" t="s">
         <v>28</v>
@@ -20032,7 +20037,7 @@
         <v>44400.381944444445</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I265" s="12">
         <v>44400.407638888886</v>
@@ -20078,7 +20083,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44400</v>
       </c>
@@ -20101,7 +20106,7 @@
         <v>44400.408599537041</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I266" s="5">
         <v>44400.40865740741</v>
@@ -20110,7 +20115,7 @@
         <v>44400.413032407407</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L266" s="4"/>
       <c r="M266" s="4"/>
@@ -20149,7 +20154,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>44400</v>
       </c>
@@ -20172,7 +20177,7 @@
         <v>44400.407638888886</v>
       </c>
       <c r="H267" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I267" s="12">
         <v>44400.409722222219</v>
@@ -20181,7 +20186,7 @@
         <v>44400.416666666664</v>
       </c>
       <c r="K267" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
@@ -20220,7 +20225,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44400</v>
       </c>
@@ -20243,7 +20248,7 @@
         <v>44400.395138888889</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I268" s="5">
         <v>44400.420138888891</v>
@@ -20252,7 +20257,7 @@
         <v>44400.422222222223</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L268" s="4"/>
       <c r="M268" s="4"/>
@@ -20291,7 +20296,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>44400</v>
       </c>
@@ -20299,7 +20304,7 @@
         <v>1021053021</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D269" s="11" t="s">
         <v>28</v>
@@ -20314,7 +20319,7 @@
         <v>44400.448611111111</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I269" s="12">
         <v>44400.449305555558</v>
@@ -20360,7 +20365,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44400</v>
       </c>
@@ -20368,7 +20373,7 @@
         <v>1021053001</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>28</v>
@@ -20383,7 +20388,7 @@
         <v>44400.449305555558</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I270" s="5">
         <v>44400.449305555558</v>
@@ -20429,7 +20434,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>44400</v>
       </c>
@@ -20437,7 +20442,7 @@
         <v>1021052567</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D271" s="11" t="s">
         <v>58</v>
@@ -20452,7 +20457,7 @@
         <v>44400.423611111109</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I271" s="12">
         <v>44400.424502314818</v>
@@ -20461,12 +20466,12 @@
         <v>44400.431793981479</v>
       </c>
       <c r="K271" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
       <c r="N271" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O271" s="9"/>
       <c r="P271" s="10" t="s">
@@ -20500,7 +20505,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44400</v>
       </c>
@@ -20508,7 +20513,7 @@
         <v>1021052796</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>28</v>
@@ -20523,7 +20528,7 @@
         <v>44400.442361111112</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I272" s="5">
         <v>44400.451388888891</v>
@@ -20532,12 +20537,12 @@
         <v>44400.453472222223</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
       <c r="N272" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" s="3" t="s">
@@ -20571,7 +20576,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>44400</v>
       </c>
@@ -20579,7 +20584,7 @@
         <v>1021053242</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D273" s="11" t="s">
         <v>28</v>
@@ -20598,7 +20603,7 @@
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
       <c r="N273" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O273" s="9"/>
       <c r="P273" s="10" t="s">
@@ -20632,7 +20637,7 @@
         <v>616.38888888888891</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44400</v>
       </c>
@@ -20640,7 +20645,7 @@
         <v>1021052032</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>28</v>
@@ -20664,7 +20669,7 @@
         <v>44400.520833333336</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>
@@ -20703,7 +20708,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>44401</v>
       </c>
@@ -20726,19 +20731,19 @@
         <v>44401.372916666667</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I275" s="12">
         <v>44401.388888888891</v>
       </c>
       <c r="J275" s="12"/>
       <c r="K275" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
       <c r="N275" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O275" s="9"/>
       <c r="P275" s="10" t="s">
@@ -20772,7 +20777,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44401</v>
       </c>
@@ -20780,7 +20785,7 @@
         <v>1021052739</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>28</v>
@@ -20799,7 +20804,7 @@
       <c r="L276" s="4"/>
       <c r="M276" s="4"/>
       <c r="N276" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O276" s="2"/>
       <c r="P276" s="3" t="s">
@@ -20833,7 +20838,7 @@
         <v>514.30555555555554</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>44401</v>
       </c>
@@ -20856,7 +20861,7 @@
         <v>44401.379166666666</v>
       </c>
       <c r="H277" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I277" s="12">
         <v>44401.426388888889</v>
@@ -20870,7 +20875,7 @@
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
       <c r="N277" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O277" s="9"/>
       <c r="P277" s="10" t="s">
@@ -20904,7 +20909,7 @@
         <v>81.666666666666657</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44401</v>
       </c>
@@ -20912,7 +20917,7 @@
         <v>1021053518</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>28</v>
@@ -20927,7 +20932,7 @@
         <v>44401.379861111112</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I278" s="5">
         <v>44401.423611111109</v>
@@ -20941,7 +20946,7 @@
       <c r="L278" s="4"/>
       <c r="M278" s="4"/>
       <c r="N278" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" s="3" t="s">
@@ -20975,7 +20980,7 @@
         <v>75.833333333333343</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>44401</v>
       </c>
@@ -21002,7 +21007,7 @@
       <c r="L279" s="11"/>
       <c r="M279" s="11"/>
       <c r="N279" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O279" s="9"/>
       <c r="P279" s="10" t="s">
@@ -21036,7 +21041,7 @@
         <v>545.41666666666663</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44401</v>
       </c>
@@ -21059,7 +21064,7 @@
         <v>44401.427083333336</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I280" s="5">
         <v>44401.459027777775</v>
@@ -21107,7 +21112,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>44401</v>
       </c>
@@ -21130,7 +21135,7 @@
         <v>44401.443749999999</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
@@ -21172,7 +21177,7 @@
         <v>621.25</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44401</v>
       </c>
@@ -21195,7 +21200,7 @@
         <v>44401.470138888886</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
@@ -21203,7 +21208,7 @@
       <c r="L282" s="4"/>
       <c r="M282" s="4"/>
       <c r="N282" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="3" t="s">
@@ -21237,7 +21242,7 @@
         <v>658.19444444444446</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>44401</v>
       </c>
@@ -21245,7 +21250,7 @@
         <v>1021053357</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D283" s="11" t="s">
         <v>28</v>
@@ -21260,7 +21265,7 @@
         <v>44401.536805555559</v>
       </c>
       <c r="H283" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
@@ -21268,7 +21273,7 @@
       <c r="L283" s="11"/>
       <c r="M283" s="11"/>
       <c r="N283" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O283" s="9"/>
       <c r="P283" s="10" t="s">
@@ -21302,7 +21307,7 @@
         <v>751.52777777777771</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44402</v>
       </c>
@@ -21325,7 +21330,7 @@
         <v>44402.363194444442</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I284" s="5">
         <v>44402.372164351851</v>
@@ -21373,7 +21378,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>44402</v>
       </c>
@@ -21381,7 +21386,7 @@
         <v>1021052943</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D285" s="11" t="s">
         <v>28</v>
@@ -21444,7 +21449,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44402</v>
       </c>
@@ -21479,7 +21484,7 @@
       </c>
       <c r="M286" s="4"/>
       <c r="N286" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="3" t="s">
@@ -21513,7 +21518,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>44403</v>
       </c>
@@ -21580,7 +21585,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44403</v>
       </c>
@@ -21588,7 +21593,7 @@
         <v>1021049068</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>28</v>
@@ -21647,7 +21652,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>44403</v>
       </c>
@@ -21655,7 +21660,7 @@
         <v>1021038401</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D289" s="11" t="s">
         <v>28</v>
@@ -21674,7 +21679,7 @@
       <c r="L289" s="11"/>
       <c r="M289" s="11"/>
       <c r="N289" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O289" s="9"/>
       <c r="P289" s="10" t="s">
@@ -21708,7 +21713,7 @@
         <v>521.11111111111109</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44403</v>
       </c>
@@ -21731,7 +21736,7 @@
         <v>44403.411805555559</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I290" s="5">
         <v>44403.431944444441</v>
@@ -21745,7 +21750,7 @@
       <c r="L290" s="4"/>
       <c r="M290" s="4"/>
       <c r="N290" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O290" s="2"/>
       <c r="P290" s="3" t="s">
@@ -21779,7 +21784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="8">
         <v>44403</v>
       </c>
@@ -21787,7 +21792,7 @@
         <v>1021049068</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D291" s="11" t="s">
         <v>28</v>
@@ -21844,7 +21849,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44403</v>
       </c>
@@ -21852,7 +21857,7 @@
         <v>1021051784</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>28</v>
@@ -21913,7 +21918,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>44403</v>
       </c>
@@ -21984,7 +21989,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44403</v>
       </c>
@@ -21992,7 +21997,7 @@
         <v>1021048887</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>28</v>
@@ -22021,7 +22026,7 @@
       <c r="L294" s="4"/>
       <c r="M294" s="4"/>
       <c r="N294" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" s="3" t="s">
@@ -22055,7 +22060,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>44403</v>
       </c>
@@ -22078,7 +22083,7 @@
         <v>44403.43472222222</v>
       </c>
       <c r="H295" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I295" s="12">
         <v>44403.439583333333</v>
@@ -22092,7 +22097,7 @@
       <c r="L295" s="11"/>
       <c r="M295" s="11"/>
       <c r="N295" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O295" s="9"/>
       <c r="P295" s="10" t="s">
@@ -22126,7 +22131,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44403</v>
       </c>
@@ -22159,7 +22164,7 @@
       <c r="L296" s="4"/>
       <c r="M296" s="4"/>
       <c r="N296" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O296" s="2"/>
       <c r="P296" s="3" t="s">
@@ -22193,7 +22198,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>44403</v>
       </c>
@@ -22264,7 +22269,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44403</v>
       </c>
@@ -22296,7 +22301,7 @@
         <v>44403.600694444445</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L298" s="4"/>
       <c r="M298" s="4"/>
@@ -22335,7 +22340,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>44403</v>
       </c>
@@ -22358,7 +22363,7 @@
         <v>44403.601388888892</v>
       </c>
       <c r="H299" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I299" s="12">
         <v>44403.670810185184</v>
@@ -22367,12 +22372,12 @@
         <v>44403.670763888891</v>
       </c>
       <c r="K299" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L299" s="11"/>
       <c r="M299" s="11"/>
       <c r="N299" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O299" s="9"/>
       <c r="P299" s="10" t="s">
@@ -22406,7 +22411,7 @@
         <v>96.249999999999986</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44403</v>
       </c>
@@ -22414,7 +22419,7 @@
         <v>1021053735</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>28</v>
@@ -22429,7 +22434,7 @@
         <v>44403.634722222225</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
@@ -22437,7 +22442,7 @@
       <c r="L300" s="4"/>
       <c r="M300" s="4"/>
       <c r="N300" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" s="3" t="s">
@@ -22471,7 +22476,7 @@
         <v>888.61111111111109</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>44403</v>
       </c>
@@ -22494,7 +22499,7 @@
         <v>44403.72152777778</v>
       </c>
       <c r="H301" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I301" s="12"/>
       <c r="J301" s="12"/>
@@ -22502,7 +22507,7 @@
       <c r="L301" s="11"/>
       <c r="M301" s="11"/>
       <c r="N301" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O301" s="9"/>
       <c r="P301" s="10" t="s">
@@ -22536,7 +22541,7 @@
         <v>1010.1388888888889</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44403</v>
       </c>
@@ -22559,7 +22564,7 @@
         <v>44403.759016203701</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
@@ -22567,7 +22572,7 @@
       <c r="L302" s="4"/>
       <c r="M302" s="4"/>
       <c r="N302" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" s="3" t="s">
@@ -22601,7 +22606,7 @@
         <v>1037.3611111111111</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>44403</v>
       </c>
@@ -22609,7 +22614,7 @@
         <v>1021053718</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D303" s="11" t="s">
         <v>28</v>
@@ -22624,7 +22629,7 @@
         <v>44403.811111111114</v>
       </c>
       <c r="H303" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I303" s="12"/>
       <c r="J303" s="12"/>
@@ -22632,7 +22637,7 @@
       <c r="L303" s="11"/>
       <c r="M303" s="11"/>
       <c r="N303" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O303" s="9"/>
       <c r="P303" s="10" t="s">
@@ -22666,7 +22671,7 @@
         <v>1135.5555555555554</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44404</v>
       </c>
@@ -22674,7 +22679,7 @@
         <v>1021053606</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>28</v>
@@ -22698,7 +22703,7 @@
         <v>44404.40625</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L304" s="4"/>
       <c r="M304" s="4"/>
@@ -22737,7 +22742,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>44404</v>
       </c>
@@ -22745,7 +22750,7 @@
         <v>1021053750</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D305" s="11" t="s">
         <v>28</v>
@@ -22808,7 +22813,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44404</v>
       </c>
@@ -22816,7 +22821,7 @@
         <v>1021051358</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>28</v>
@@ -22845,7 +22850,7 @@
       <c r="L306" s="4"/>
       <c r="M306" s="4"/>
       <c r="N306" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O306" s="2"/>
       <c r="P306" s="3" t="s">
@@ -22879,7 +22884,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>44404</v>
       </c>
@@ -22887,7 +22892,7 @@
         <v>1021054178</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D307" s="11" t="s">
         <v>28</v>
@@ -22940,7 +22945,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44404</v>
       </c>
@@ -22948,7 +22953,7 @@
         <v>1021054149</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>28</v>
@@ -23011,7 +23016,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>44404</v>
       </c>
@@ -23043,7 +23048,7 @@
         <v>44404.447222222225</v>
       </c>
       <c r="K309" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L309" s="11" t="s">
         <v>41</v>
@@ -23084,7 +23089,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44404</v>
       </c>
@@ -23092,7 +23097,7 @@
         <v>1021053987</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>28</v>
@@ -23123,7 +23128,7 @@
       </c>
       <c r="M310" s="4"/>
       <c r="N310" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O310" s="2"/>
       <c r="P310" s="3" t="s">
@@ -23157,7 +23162,7 @@
         <v>95.277777777777771</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>44404</v>
       </c>
@@ -23188,7 +23193,7 @@
       <c r="L311" s="11"/>
       <c r="M311" s="11"/>
       <c r="N311" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O311" s="9"/>
       <c r="P311" s="10" t="s">
@@ -23222,7 +23227,7 @@
         <v>554.16666666666663</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44404</v>
       </c>
@@ -23261,7 +23266,7 @@
       </c>
       <c r="M312" s="4"/>
       <c r="N312" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="3" t="s">
@@ -23295,7 +23300,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>44404</v>
       </c>
@@ -23326,7 +23331,7 @@
       <c r="L313" s="11"/>
       <c r="M313" s="11"/>
       <c r="N313" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O313" s="9"/>
       <c r="P313" s="10" t="s">
@@ -23360,7 +23365,7 @@
         <v>603.75</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44404</v>
       </c>
@@ -23392,12 +23397,12 @@
         <v>44404.453472222223</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L314" s="4"/>
       <c r="M314" s="4"/>
       <c r="N314" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O314" s="2"/>
       <c r="P314" s="3" t="s">
@@ -23431,7 +23436,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>44404</v>
       </c>
@@ -23454,7 +23459,7 @@
         <v>44404.43472222222</v>
       </c>
       <c r="H315" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I315" s="12"/>
       <c r="J315" s="12"/>
@@ -23462,7 +23467,7 @@
       <c r="L315" s="11"/>
       <c r="M315" s="11"/>
       <c r="N315" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O315" s="9"/>
       <c r="P315" s="10" t="s">
@@ -23496,7 +23501,7 @@
         <v>602.77777777777783</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44404</v>
       </c>
@@ -23504,7 +23509,7 @@
         <v>1021053684</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>28</v>
@@ -23528,7 +23533,7 @@
         <v>44404.490277777775</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L316" s="4"/>
       <c r="M316" s="4"/>
@@ -23567,7 +23572,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>44404</v>
       </c>
@@ -23575,7 +23580,7 @@
         <v>1021054171</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D317" s="11" t="s">
         <v>28</v>
@@ -23590,7 +23595,7 @@
         <v>44404.502083333333</v>
       </c>
       <c r="H317" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I317" s="12">
         <v>44404.490972222222</v>
@@ -23602,7 +23607,7 @@
       </c>
       <c r="M317" s="11"/>
       <c r="N317" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O317" s="9"/>
       <c r="P317" s="10" t="s">
@@ -23636,7 +23641,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44404</v>
       </c>
@@ -23659,7 +23664,7 @@
         <v>44404.507638888892</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I318" s="5">
         <v>44404.524305555555</v>
@@ -23668,7 +23673,7 @@
         <v>44404.526388888888</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
@@ -23707,7 +23712,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>44404</v>
       </c>
@@ -23739,12 +23744,12 @@
         <v>44404.652442129627</v>
       </c>
       <c r="K319" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L319" s="11"/>
       <c r="M319" s="11"/>
       <c r="N319" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O319" s="9"/>
       <c r="P319" s="10" t="s">
@@ -23778,7 +23783,7 @@
         <v>171.11111111111111</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44404</v>
       </c>
@@ -23786,7 +23791,7 @@
         <v>1021052096</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>28</v>
@@ -23849,7 +23854,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>44404</v>
       </c>
@@ -23881,12 +23886,12 @@
         <v>44404.597662037035</v>
       </c>
       <c r="K321" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L321" s="11"/>
       <c r="M321" s="11"/>
       <c r="N321" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O321" s="9"/>
       <c r="P321" s="10" t="s">
@@ -23920,7 +23925,7 @@
         <v>71.944444444444457</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44404</v>
       </c>
@@ -23943,7 +23948,7 @@
         <v>44404.630555555559</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I322" s="5">
         <v>44404.631249999999</v>
@@ -23952,12 +23957,12 @@
         <v>44404.631249999999</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L322" s="4"/>
       <c r="M322" s="4"/>
       <c r="N322" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O322" s="2"/>
       <c r="P322" s="3" t="s">
@@ -23991,7 +23996,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>44404</v>
       </c>
@@ -24014,7 +24019,7 @@
         <v>44404.631249999999</v>
       </c>
       <c r="H323" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I323" s="12">
         <v>44404.631249999999</v>
@@ -24062,7 +24067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44404</v>
       </c>
@@ -24070,7 +24075,7 @@
         <v>1021054178</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>28</v>
@@ -24085,7 +24090,7 @@
         <v>44404.820138888892</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
@@ -24093,7 +24098,7 @@
       <c r="L324" s="4"/>
       <c r="M324" s="4"/>
       <c r="N324" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="3" t="s">
@@ -24127,7 +24132,7 @@
         <v>1148.1944444444443</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>44405</v>
       </c>
@@ -24154,7 +24159,7 @@
       <c r="L325" s="11"/>
       <c r="M325" s="11"/>
       <c r="N325" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O325" s="9"/>
       <c r="P325" s="10" t="s">
@@ -24188,7 +24193,7 @@
         <v>482.22222222222229</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44405</v>
       </c>
@@ -24219,7 +24224,7 @@
       <c r="L326" s="4"/>
       <c r="M326" s="4"/>
       <c r="N326" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O326" s="2"/>
       <c r="P326" s="3" t="s">
@@ -24253,7 +24258,7 @@
         <v>537.63888888888891</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>44405</v>
       </c>
@@ -24261,7 +24266,7 @@
         <v>1021054383</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D327" s="11"/>
       <c r="E327" s="9">
@@ -24288,7 +24293,7 @@
       <c r="L327" s="11"/>
       <c r="M327" s="11"/>
       <c r="N327" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O327" s="9"/>
       <c r="P327" s="10" t="s">
@@ -24322,7 +24327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44405</v>
       </c>
@@ -24330,7 +24335,7 @@
         <v>1021054096</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>28</v>
@@ -24381,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>44405</v>
       </c>
@@ -24389,7 +24394,7 @@
         <v>1021053807</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D329" s="11" t="s">
         <v>28</v>
@@ -24418,7 +24423,7 @@
       <c r="L329" s="11"/>
       <c r="M329" s="11"/>
       <c r="N329" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O329" s="9"/>
       <c r="P329" s="10" t="s">
@@ -24452,7 +24457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44405</v>
       </c>
@@ -24489,7 +24494,7 @@
       <c r="L330" s="4"/>
       <c r="M330" s="4"/>
       <c r="N330" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O330" s="2"/>
       <c r="P330" s="3" t="s">
@@ -24523,7 +24528,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>44405</v>
       </c>
@@ -24560,7 +24565,7 @@
       <c r="L331" s="11"/>
       <c r="M331" s="11"/>
       <c r="N331" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="O331" s="9"/>
       <c r="P331" s="10" t="s">
@@ -24594,7 +24599,7 @@
         <v>74.861111111111114</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44405</v>
       </c>
@@ -24631,7 +24636,7 @@
       <c r="L332" s="4"/>
       <c r="M332" s="4"/>
       <c r="N332" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" s="3" t="s">
@@ -24665,7 +24670,7 @@
         <v>92.361111111111114</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>44405</v>
       </c>
@@ -24673,7 +24678,7 @@
         <v>1021053751</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>28</v>
@@ -24692,7 +24697,7 @@
       <c r="L333" s="11"/>
       <c r="M333" s="11"/>
       <c r="N333" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O333" s="9"/>
       <c r="P333" s="10" t="s">
@@ -24726,7 +24731,7 @@
         <v>589.16666666666663</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44405</v>
       </c>
@@ -24734,7 +24739,7 @@
         <v>1021053799</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>58</v>
@@ -24797,7 +24802,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>44405</v>
       </c>
@@ -24805,7 +24810,7 @@
         <v>1021051947</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>28</v>
@@ -24824,7 +24829,7 @@
       <c r="L335" s="11"/>
       <c r="M335" s="11"/>
       <c r="N335" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O335" s="9"/>
       <c r="P335" s="10" t="s">
@@ -24858,7 +24863,7 @@
         <v>620.27777777777771</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44405</v>
       </c>
@@ -24866,7 +24871,7 @@
         <v>1021059807</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>28</v>
@@ -24929,7 +24934,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>44405</v>
       </c>
@@ -24937,7 +24942,7 @@
         <v>1021053810</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>28</v>
@@ -24964,7 +24969,7 @@
       <c r="L337" s="11"/>
       <c r="M337" s="11"/>
       <c r="N337" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O337" s="9"/>
       <c r="P337" s="10" t="s">
@@ -24998,7 +25003,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44405</v>
       </c>
@@ -25069,7 +25074,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>44405</v>
       </c>
@@ -25140,7 +25145,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44405</v>
       </c>
@@ -25167,7 +25172,7 @@
       <c r="L340" s="4"/>
       <c r="M340" s="4"/>
       <c r="N340" s="17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="3" t="s">
@@ -25201,7 +25206,7 @@
         <v>780.69444444444446</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>44405</v>
       </c>
@@ -25228,7 +25233,7 @@
       <c r="L341" s="11"/>
       <c r="M341" s="11"/>
       <c r="N341" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O341" s="9"/>
       <c r="P341" s="10" t="s">
@@ -25262,7 +25267,7 @@
         <v>809.86111111111109</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44405</v>
       </c>
@@ -25285,7 +25290,7 @@
         <v>44405.640972222223</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I342" s="5">
         <v>44405.65</v>
@@ -25294,12 +25299,12 @@
         <v>44405.65</v>
       </c>
       <c r="K342" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L342" s="4"/>
       <c r="M342" s="4"/>
       <c r="N342" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" s="3" t="s">
@@ -25333,7 +25338,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
         <v>44405</v>
       </c>
@@ -25365,12 +25370,12 @@
         <v>44405.732847222222</v>
       </c>
       <c r="K343" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L343" s="11"/>
       <c r="M343" s="11"/>
       <c r="N343" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O343" s="9"/>
       <c r="P343" s="10" t="s">
@@ -25404,7 +25409,7 @@
         <v>116.66666666666666</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44405</v>
       </c>
@@ -25427,7 +25432,7 @@
         <v>44405.73333333333</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I344" s="5">
         <v>44405.73333333333</v>
@@ -25436,7 +25441,7 @@
         <v>44405.73333333333</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L344" s="4"/>
       <c r="M344" s="4"/>
@@ -25475,7 +25480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>44405</v>
       </c>
@@ -25483,7 +25488,7 @@
         <v>1021054682</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D345" s="11" t="s">
         <v>28</v>
@@ -25498,7 +25503,7 @@
         <v>44405.740972222222</v>
       </c>
       <c r="H345" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I345" s="12"/>
       <c r="J345" s="12"/>
@@ -25506,7 +25511,7 @@
       <c r="L345" s="11"/>
       <c r="M345" s="11"/>
       <c r="N345" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O345" s="9"/>
       <c r="P345" s="10" t="s">
@@ -25540,7 +25545,7 @@
         <v>1037.3611111111111</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44405</v>
       </c>
@@ -25563,7 +25568,7 @@
         <v>44405.746527777781</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -25571,7 +25576,7 @@
       <c r="L346" s="4"/>
       <c r="M346" s="4"/>
       <c r="N346" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" s="3" t="s">
@@ -25605,7 +25610,7 @@
         <v>1045.1388888888889</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>44406</v>
       </c>
@@ -25676,7 +25681,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44406</v>
       </c>
@@ -25684,7 +25689,7 @@
         <v>1021054231</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>28</v>
@@ -25745,7 +25750,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
         <v>44406</v>
       </c>
@@ -25776,7 +25781,7 @@
       <c r="L349" s="11"/>
       <c r="M349" s="11"/>
       <c r="N349" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O349" s="9"/>
       <c r="P349" s="10" t="s">
@@ -25810,7 +25815,7 @@
         <v>501.66666666666669</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44406</v>
       </c>
@@ -25881,7 +25886,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
         <v>44406</v>
       </c>
@@ -25908,7 +25913,7 @@
       <c r="L351" s="11"/>
       <c r="M351" s="11"/>
       <c r="N351" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O351" s="9"/>
       <c r="P351" s="10" t="s">
@@ -25942,7 +25947,7 @@
         <v>548.33333333333337</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44406</v>
       </c>
@@ -25979,7 +25984,7 @@
       <c r="L352" s="4"/>
       <c r="M352" s="4"/>
       <c r="N352" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O352" s="2"/>
       <c r="P352" s="3" t="s">
@@ -26013,7 +26018,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>44406</v>
       </c>
@@ -26040,7 +26045,7 @@
       <c r="L353" s="11"/>
       <c r="M353" s="11"/>
       <c r="N353" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O353" s="9"/>
       <c r="P353" s="10" t="s">
@@ -26074,7 +26079,7 @@
         <v>557.08333333333337</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44406</v>
       </c>
@@ -26082,7 +26087,7 @@
         <v>1021054363</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>58</v>
@@ -26111,7 +26116,7 @@
       <c r="L354" s="4"/>
       <c r="M354" s="4"/>
       <c r="N354" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O354" s="2"/>
       <c r="P354" s="3" t="s">
@@ -26145,7 +26150,7 @@
         <v>71.944444444444457</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
         <v>44406</v>
       </c>
@@ -26172,7 +26177,7 @@
       <c r="L355" s="11"/>
       <c r="M355" s="11"/>
       <c r="N355" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O355" s="9"/>
       <c r="P355" s="10" t="s">
@@ -26206,7 +26211,7 @@
         <v>577.5</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44406</v>
       </c>
@@ -26229,7 +26234,7 @@
         <v>44406.413194444445</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I356" s="5">
         <v>44406.472222222219</v>
@@ -26238,12 +26243,12 @@
         <v>44406.480555555558</v>
       </c>
       <c r="K356" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L356" s="4"/>
       <c r="M356" s="4"/>
       <c r="N356" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="3" t="s">
@@ -26277,7 +26282,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="8">
         <v>44406</v>
       </c>
@@ -26348,7 +26353,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44406</v>
       </c>
@@ -26356,7 +26361,7 @@
         <v>1021053199</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>28</v>
@@ -26417,7 +26422,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="8">
         <v>44406</v>
       </c>
@@ -26449,10 +26454,10 @@
         <v>44406.496527777781</v>
       </c>
       <c r="K359" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L359" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M359" s="11"/>
       <c r="N359" s="18" t="s">
@@ -26490,7 +26495,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44406</v>
       </c>
@@ -26561,7 +26566,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="8">
         <v>44406</v>
       </c>
@@ -26569,7 +26574,7 @@
         <v>1021054532</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D361" s="11" t="s">
         <v>28</v>
@@ -26598,7 +26603,7 @@
       <c r="L361" s="11"/>
       <c r="M361" s="11"/>
       <c r="N361" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O361" s="9"/>
       <c r="P361" s="10" t="s">
@@ -26632,7 +26637,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44406</v>
       </c>
@@ -26703,7 +26708,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="8">
         <v>44406</v>
       </c>
@@ -26711,7 +26716,7 @@
         <v>1021053862</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D363" s="11" t="s">
         <v>28</v>
@@ -26726,7 +26731,7 @@
         <v>44406.741666666669</v>
       </c>
       <c r="H363" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I363" s="12"/>
       <c r="J363" s="12"/>
@@ -26734,7 +26739,7 @@
       <c r="L363" s="11"/>
       <c r="M363" s="11"/>
       <c r="N363" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O363" s="9"/>
       <c r="P363" s="10" t="s">
@@ -26768,7 +26773,7 @@
         <v>1038.3333333333335</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44406</v>
       </c>
@@ -26776,7 +26781,7 @@
         <v>1021055013</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>28</v>
@@ -26791,7 +26796,7 @@
         <v>44406.820833333331</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
@@ -26799,7 +26804,7 @@
       <c r="L364" s="4"/>
       <c r="M364" s="4"/>
       <c r="N364" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O364" s="2"/>
       <c r="P364" s="3" t="s">
@@ -26833,7 +26838,7 @@
         <v>1149.1666666666665</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="8">
         <v>44407</v>
       </c>
@@ -26841,7 +26846,7 @@
         <v>1021054707</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>28</v>
@@ -26865,7 +26870,7 @@
         <v>44407.425694444442</v>
       </c>
       <c r="K365" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L365" s="11"/>
       <c r="M365" s="11"/>
@@ -26904,7 +26909,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44407</v>
       </c>
@@ -26912,7 +26917,7 @@
         <v>1021054769</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>28</v>
@@ -26969,7 +26974,7 @@
         <v>515.27777777777783</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="8">
         <v>44407</v>
       </c>
@@ -27001,7 +27006,7 @@
         <v>44407.418055555558</v>
       </c>
       <c r="K367" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L367" s="11"/>
       <c r="M367" s="11"/>
@@ -27040,7 +27045,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44407</v>
       </c>
@@ -27048,7 +27053,7 @@
         <v>1021054599</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>28</v>
@@ -27077,7 +27082,7 @@
       <c r="L368" s="4"/>
       <c r="M368" s="4"/>
       <c r="N368" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" s="3" t="s">
@@ -27111,7 +27116,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="8">
         <v>44407</v>
       </c>
@@ -27119,7 +27124,7 @@
         <v>1021054451</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D369" s="11" t="s">
         <v>28</v>
@@ -27180,7 +27185,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44407</v>
       </c>
@@ -27188,7 +27193,7 @@
         <v>1021054451</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>28</v>
@@ -27213,7 +27218,7 @@
       </c>
       <c r="M370" s="4"/>
       <c r="N370" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O370" s="2"/>
       <c r="P370" s="3" t="s">
@@ -27247,7 +27252,7 @@
         <v>564.86111111111109</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="8">
         <v>44407</v>
       </c>
@@ -27279,10 +27284,10 @@
         <v>44407.497916666667</v>
       </c>
       <c r="K371" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L371" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M371" s="11"/>
       <c r="N371" s="18" t="s">
@@ -27320,7 +27325,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44407</v>
       </c>
@@ -27355,7 +27360,7 @@
       <c r="L372" s="4"/>
       <c r="M372" s="4"/>
       <c r="N372" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" s="3" t="s">
@@ -27389,7 +27394,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="8">
         <v>44407</v>
       </c>
@@ -27462,7 +27467,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44407</v>
       </c>
@@ -27470,7 +27475,7 @@
         <v>1021053968</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>28</v>
@@ -27499,7 +27504,7 @@
       <c r="L374" s="4"/>
       <c r="M374" s="4"/>
       <c r="N374" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O374" s="2"/>
       <c r="P374" s="3" t="s">
@@ -27533,7 +27538,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="8">
         <v>44407</v>
       </c>
@@ -27556,7 +27561,7 @@
         <v>44407.611805555556</v>
       </c>
       <c r="H375" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I375" s="12">
         <v>44407.625</v>
@@ -27604,7 +27609,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44407</v>
       </c>
@@ -27675,7 +27680,7 @@
         <v>63.194444444444443</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="8">
         <v>44408</v>
       </c>
@@ -27683,7 +27688,7 @@
         <v>1021053057</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>28</v>
@@ -27746,7 +27751,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44408</v>
       </c>
@@ -27819,7 +27824,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="8">
         <v>44408</v>
       </c>
@@ -27842,7 +27847,7 @@
         <v>44408.385416666664</v>
       </c>
       <c r="H379" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I379" s="12">
         <v>44408.394444444442</v>
@@ -27856,7 +27861,7 @@
       <c r="L379" s="11"/>
       <c r="M379" s="11"/>
       <c r="N379" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O379" s="9"/>
       <c r="P379" s="10" t="s">
@@ -27890,7 +27895,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44408</v>
       </c>
@@ -27898,7 +27903,7 @@
         <v>1021053057</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>28</v>
@@ -27913,7 +27918,7 @@
         <v>44408.413888888892</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I380" s="5">
         <v>44408.402777777781</v>
@@ -27961,7 +27966,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="8">
         <v>44408</v>
       </c>
@@ -27969,7 +27974,7 @@
         <v>1021054993</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>28</v>
@@ -28032,7 +28037,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44408</v>
       </c>
@@ -28040,7 +28045,7 @@
         <v>1021055282</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>28</v>
@@ -28059,7 +28064,7 @@
       <c r="L382" s="4"/>
       <c r="M382" s="4"/>
       <c r="N382" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O382" s="2"/>
       <c r="P382" s="3" t="s">
@@ -28093,7 +28098,7 @@
         <v>536.66666666666663</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="8">
         <v>44408</v>
       </c>
@@ -28124,7 +28129,7 @@
       <c r="L383" s="11"/>
       <c r="M383" s="11"/>
       <c r="N383" s="18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O383" s="9"/>
       <c r="P383" s="10" t="s">
@@ -28158,7 +28163,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44408</v>
       </c>
@@ -28181,7 +28186,7 @@
         <v>44408.416666666664</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I384" s="5">
         <v>44408.423611111109</v>
@@ -28229,7 +28234,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="8">
         <v>44408</v>
       </c>
@@ -28252,7 +28257,7 @@
         <v>44408.438194444447</v>
       </c>
       <c r="H385" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I385" s="12">
         <v>44408.444444444445</v>
@@ -28300,7 +28305,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44408</v>
       </c>
@@ -28323,7 +28328,7 @@
         <v>44408.438888888886</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I386" s="5">
         <v>44408.440972222219</v>
@@ -28371,7 +28376,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="8">
         <v>44408</v>
       </c>
@@ -28379,7 +28384,7 @@
         <v>1021054474</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D387" s="11" t="s">
         <v>28</v>
@@ -28398,7 +28403,7 @@
       <c r="L387" s="11"/>
       <c r="M387" s="11"/>
       <c r="N387" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O387" s="9"/>
       <c r="P387" s="10" t="s">
@@ -28432,7 +28437,7 @@
         <v>677.63888888888891</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44408</v>
       </c>
@@ -28459,7 +28464,7 @@
       <c r="L388" s="4"/>
       <c r="M388" s="4"/>
       <c r="N388" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O388" s="2"/>
       <c r="P388" s="3" t="s">
@@ -28493,7 +28498,7 @@
         <v>680.55555555555554</v>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="8">
         <v>44408</v>
       </c>
@@ -28501,7 +28506,7 @@
         <v>1021055064</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D389" s="11" t="s">
         <v>28</v>
@@ -28516,7 +28521,7 @@
         <v>44408.504166666666</v>
       </c>
       <c r="H389" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I389" s="12"/>
       <c r="J389" s="12"/>
@@ -28524,7 +28529,7 @@
       <c r="L389" s="11"/>
       <c r="M389" s="11"/>
       <c r="N389" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O389" s="9"/>
       <c r="P389" s="10" t="s">
@@ -28558,7 +28563,7 @@
         <v>695.1388888888888</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44408</v>
       </c>
@@ -28566,7 +28571,7 @@
         <v>1021054739</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>28</v>
@@ -28581,7 +28586,7 @@
         <v>44408.538194444445</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I390" s="5"/>
       <c r="J390" s="5"/>
@@ -28589,7 +28594,7 @@
       <c r="L390" s="4"/>
       <c r="M390" s="4"/>
       <c r="N390" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O390" s="2"/>
       <c r="P390" s="3" t="s">
@@ -28624,7 +28629,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z390"/>
+  <autoFilter ref="A1:Z390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
